--- a/radar.xlsx
+++ b/radar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\clients\mitrais\sources\radar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\internal\bootcamp-java\java-black-belt\java-cert-exam-questions\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7031199-6395-426A-A1D0-2ED1300830DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00D16E1-A765-451F-9F90-1150C78BB628}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="-110" windowWidth="18450" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33225" yWindow="1635" windowWidth="13665" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-S1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>name</t>
   </si>
@@ -49,15 +49,6 @@
     <t>tools</t>
   </si>
   <si>
-    <t>techniques</t>
-  </si>
-  <si>
-    <t>platforms</t>
-  </si>
-  <si>
-    <t>MongoDB</t>
-  </si>
-  <si>
     <t>JDK 11</t>
   </si>
   <si>
@@ -85,10 +76,29 @@
     <t>&lt;strong&gt;Spring Web Flux&lt;/strong&gt; reactive-stack web framework, it is fully non-blocking, supports &lt;a href="https://www.reactive-streams.org"&gt;Reactive Streams&lt;/a&gt; back pressure, and runs on such servers as Netty, Undertow, and Servlet 3.1+ containers.</t>
   </si>
   <si>
-    <t>Google Cloud Platform</t>
-  </si>
-  <si>
-    <t>Microservices</t>
+    <t>Metrics by Dropwizard</t>
+  </si>
+  <si>
+    <t>Metrics provides a powerful toolkit of ways to measure the behavior of critical components in your production environment</t>
+  </si>
+  <si>
+    <t>Apache Kafka</t>
+  </si>
+  <si>
+    <t>Kafka is used for building real-time data pipelines and streaming apps. It is horizontally scalable, fault-tolerant, fast, and runs in production in thousands of companies.
+A streaming platform has three key capabilities:
+Publish and subscribe to streams of records, similar to a message queue or enterprise messaging system.
+Store streams of records in a fault-tolerant durable way.
+Process streams of records as they occur.
+Kafka is generally used for two broad classes of applications:
+Building real-time streaming data pipelines that reliably get data between systems or applications
+Building real-time streaming applications that transform or react to the streams of data</t>
+  </si>
+  <si>
+    <t>Elasticsearch</t>
+  </si>
+  <si>
+    <t>Elasticsearch is a distributed, RESTful search and analytics engine.</t>
   </si>
 </sst>
 </file>
@@ -572,11 +582,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -935,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -966,7 +979,7 @@
     </row>
     <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -978,15 +991,15 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -995,12 +1008,12 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -1012,15 +1025,15 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -1029,12 +1042,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -1045,19 +1058,25 @@
       <c r="D6" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="232" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1068,10 +1087,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">

--- a/radar.xlsx
+++ b/radar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\internal\bootcamp-java\java-black-belt\java-cert-exam-questions\questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\clients\mitrais\sources\radar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00D16E1-A765-451F-9F90-1150C78BB628}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF298FFD-E280-49EE-9991-AE8CF1C5830F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33225" yWindow="1635" windowWidth="13665" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="-110" windowWidth="18440" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-S1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>name</t>
   </si>
@@ -99,6 +99,61 @@
   </si>
   <si>
     <t>Elasticsearch is a distributed, RESTful search and analytics engine.</t>
+  </si>
+  <si>
+    <t>Java Melody</t>
+  </si>
+  <si>
+    <t>A tool to measure and calculate statistics on real operation of an application depending on the usage of the application by users.</t>
+  </si>
+  <si>
+    <t>ML.NET</t>
+  </si>
+  <si>
+    <t>ML.NET is a free, cross-platform, open source machine learning framework made specifically for .NET developers.
+Develop and integrate custom machine learning models into your applications while teaching yourself the basics of machine learning.
+ML.NET is an extensible platform that powers recognized Microsoft features like Windows Hello, Bing Ads, PowerPoint Design Ideas, and more. It is currently in preview</t>
+  </si>
+  <si>
+    <t>Micrometer</t>
+  </si>
+  <si>
+    <t>Micrometer provides a simple facade over the instrumentation clients for the most popular monitoring systems, allowing you to instrument your JVM-based application code without vendor lock-in. Think SLF4J, but for metrics.
+http://micrometer.io/</t>
+  </si>
+  <si>
+    <t>Elixir</t>
+  </si>
+  <si>
+    <t>Elixir is a dynamic, functional language designed for building scalable and maintainable applications. Elixir leverages the Erlang VM, known for running low-latency, distributed and fault-tolerant systems, while also being successfully used in web development and the embedded software domain.</t>
+  </si>
+  <si>
+    <t>GraphQL</t>
+  </si>
+  <si>
+    <t>GraphQL is a query language for your API, and a server-side runtime for executing queries by using a type system you define for your data. GraphQL isn't tied to any specific database or storage engine and is instead backed by your existing code and data.</t>
+  </si>
+  <si>
+    <t>SignalR</t>
+  </si>
+  <si>
+    <t>SignalR add realtime functionality to ASP.NET application. SignalR hubs can be written in C# code and added to you ASP.NET app, alongside your pages and APIs.
+The simple programming model integrates seamlessly with other ASP.NET features like dependency injection, authentication, authorization, and scalability.</t>
+  </si>
+  <si>
+    <t>Testcontainers</t>
+  </si>
+  <si>
+    <t>Testcontainers is a Java library that supports JUnit tests, providing lightweight, throwaway instances of common databases, Selenium web browsers, or anything else that can run in a Docker container.</t>
+  </si>
+  <si>
+    <t>Java Platform, Enterprise Edition (Java EE)</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>A collection of technologies and APIs for the Java platform designed to support "Enterprise" Applications which can generally be classed as large-scale, distributed, transactional and highly-available applications designed to support mission-critical business requirements.</t>
   </si>
 </sst>
 </file>
@@ -582,9 +637,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -946,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -978,126 +1032,256 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="b">
+      <c r="D2" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="b">
+      <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="b">
+      <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="b">
+      <c r="D5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="b">
+      <c r="D6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="232" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2" t="b">
+      <c r="D7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="b">
+      <c r="D8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E12" s="1"/>
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/radar.xlsx
+++ b/radar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\clients\mitrais\sources\radar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF298FFD-E280-49EE-9991-AE8CF1C5830F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072E2857-DF48-4734-A5C3-9DD9F8BEADA8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="-110" windowWidth="18440" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-S1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>name</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>A collection of technologies and APIs for the Java platform designed to support "Enterprise" Applications which can generally be classed as large-scale, distributed, transactional and highly-available applications designed to support mission-critical business requirements.</t>
+  </si>
+  <si>
+    <t>platforms</t>
+  </si>
+  <si>
+    <t>JWT</t>
+  </si>
+  <si>
+    <t>techniques</t>
+  </si>
+  <si>
+    <t>JSON Web Token is a JSON-based open standard (RFC 7519) for creating access tokens that assert some number of claims.</t>
   </si>
 </sst>
 </file>
@@ -1000,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1124,7 +1136,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="b">
         <v>0</v>
@@ -1141,7 +1153,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="b">
         <v>0</v>
@@ -1171,6 +1183,9 @@
       <c r="A10" t="s">
         <v>26</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1281,6 +1296,23 @@
       </c>
       <c r="E16" s="2" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/radar.xlsx
+++ b/radar.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\clients\mitrais\sources\radar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072E2857-DF48-4734-A5C3-9DD9F8BEADA8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48678DBD-7CCC-4082-8FE5-733A6A400CF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="-120" windowWidth="28065" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2019-S1" sheetId="1" r:id="rId1"/>
+    <sheet name="2020-S1" sheetId="2" r:id="rId1"/>
+    <sheet name="2019-S1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -68,9 +69,6 @@
   </si>
   <si>
     <t>Spring Web Flux</t>
-  </si>
-  <si>
-    <t>asses</t>
   </si>
   <si>
     <t>&lt;strong&gt;Spring Web Flux&lt;/strong&gt; reactive-stack web framework, it is fully non-blocking, supports &lt;a href="https://www.reactive-streams.org"&gt;Reactive Streams&lt;/a&gt; back pressure, and runs on such servers as Netty, Undertow, and Servlet 3.1+ containers.</t>
@@ -166,6 +164,33 @@
   </si>
   <si>
     <t>JSON Web Token is a JSON-based open standard (RFC 7519) for creating access tokens that assert some number of claims.</t>
+  </si>
+  <si>
+    <t>assess</t>
+  </si>
+  <si>
+    <t>ServiceNow</t>
+  </si>
+  <si>
+    <t>Progress 4GL</t>
+  </si>
+  <si>
+    <t>Flutter</t>
+  </si>
+  <si>
+    <t>ServiceNow is a software-as-a-service provider, providing technical management support, such as IT service management, to the IT operations of large corporations, including providing help desk functionality</t>
+  </si>
+  <si>
+    <t>Flutter is an open-source UI software development kit created by Google. It is used to develop applications for Android, iOS, Windows, Mac, Linux, Google Fuchsia[5] and the web</t>
+  </si>
+  <si>
+    <t>OpenEdge Advanced Business Language, or OpenEdge ABL for short, is a business application development language created and maintained by Progress Software Corporation (PSC). The language, typically classified as a fourth-generation programming language, uses an English-like syntax to simplify software development.[1] The language was called PROGRESS or Progress 4GL up until version 9, but in 2006 PSC changed the name to OpenEdge Advanced Business Language (OpenEdge ABL) in order to overcome a presumed industry perception that 4GLs were less capable than other languages.[2] A subset of the language, called SpeedScript, is used in the development of web applications</t>
+  </si>
+  <si>
+    <t>NetSuite</t>
+  </si>
+  <si>
+    <t>software and services to manage business finances, operations, and customer relations.</t>
   </si>
 </sst>
 </file>
@@ -1011,22 +1036,401 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE157293-0D9A-4116-B097-B414F06D871C}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +1447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1060,7 +1464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1077,7 +1481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1094,26 +1498,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1125,46 +1529,46 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="232" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -1176,143 +1580,143 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/radar.xlsx
+++ b/radar.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\clients\mitrais\sources\radar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clients\mitrais\sources\radar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48678DBD-7CCC-4082-8FE5-733A6A400CF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CB5D28-83B0-4537-8B42-733253B326F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="-120" windowWidth="28065" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="830" yWindow="-110" windowWidth="18480" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-S1" sheetId="2" r:id="rId1"/>
-    <sheet name="2019-S1" sheetId="1" r:id="rId2"/>
+    <sheet name="2020-S2" sheetId="3" r:id="rId1"/>
+    <sheet name="2020-S1" sheetId="2" r:id="rId2"/>
+    <sheet name="2019-S1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="71">
   <si>
     <t>name</t>
   </si>
@@ -191,6 +192,60 @@
   </si>
   <si>
     <t>software and services to manage business finances, operations, and customer relations.</t>
+  </si>
+  <si>
+    <t>Terraform</t>
+  </si>
+  <si>
+    <t>Use Infrastructure as Code to provision and manage any cloud, infrastructure, or service</t>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+  </si>
+  <si>
+    <t>Kubernetes (K8s) is an open-source system for automating deployment, scaling, and management of containerized applications</t>
+  </si>
+  <si>
+    <t>Github Actions</t>
+  </si>
+  <si>
+    <t>GitHub Actions makes it easy to automate all your software workflows, now with world-class CI/CD. Build, test, and deploy your code right from GitHub.</t>
+  </si>
+  <si>
+    <t>Blazor</t>
+  </si>
+  <si>
+    <t>Blazor is a feature of ASP.NET for building interactive web UIs using C# instead of JavaScript running in the browser on WebAssembly</t>
+  </si>
+  <si>
+    <t>Quasar Framework</t>
+  </si>
+  <si>
+    <t>Quasar is an MIT licensed open-source Vue.js based framework, which allows you as a web developer to quickly create responsive++ websites/apps in many flavours</t>
+  </si>
+  <si>
+    <t>UIPath</t>
+  </si>
+  <si>
+    <t>Robotic Process Automation vendor providing a complete software platform to help organizations efficiently automate business processes.</t>
+  </si>
+  <si>
+    <t>Hyperledger Fabric</t>
+  </si>
+  <si>
+    <t>Hyperledger is an open source community focused on developing a suite of stable frameworks, tools and libraries for enterprise-grade blockchain deployments.</t>
+  </si>
+  <si>
+    <t>Quarkus</t>
+  </si>
+  <si>
+    <t>A Kubernetes Native Java stack tailored for OpenJDK HotSpot and GraalVM, crafted from the best of breed Java libraries and standards.</t>
+  </si>
+  <si>
+    <t>Clojure</t>
+  </si>
+  <si>
+    <t>Clojure is a dynamic, general-purpose programming language, combining the approachability and interactive development of a scripting language with an efficient and robust infrastructure for multithreaded programming. Clojure is a compiled language, yet remains completely dynamic – every feature supported by Clojure is supported at runtime. Clojure provides easy access to the Java frameworks, with optional type hints and type inference, to ensure that calls to Java can avoid reflection.</t>
   </si>
 </sst>
 </file>
@@ -674,13 +729,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1036,22 +1097,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE157293-0D9A-4116-B097-B414F06D871C}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F17DE5E-55DD-4A84-BDB3-285BA5B83CDB}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1064,81 +1125,81 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="232" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1149,115 +1210,115 @@
       <c r="D6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E12" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>44</v>
@@ -1268,16 +1329,16 @@
       <c r="D13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="E13" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
@@ -1285,127 +1346,8 @@
       <c r="D14" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>52</v>
+      <c r="E14" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1415,6 +1357,385 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE157293-0D9A-4116-B097-B414F06D871C}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="232" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -1422,15 +1743,15 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +1768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1464,7 +1785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1481,7 +1802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1498,7 +1819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1515,7 +1836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1532,7 +1853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="232" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1549,7 +1870,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1566,7 +1887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1583,7 +1904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1600,7 +1921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1617,7 +1938,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1634,7 +1955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1651,7 +1972,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1668,7 +1989,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1685,7 +2006,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1702,7 +2023,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>

--- a/radar.xlsx
+++ b/radar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clients\mitrais\sources\radar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CB5D28-83B0-4537-8B42-733253B326F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACFAFA5-D494-4091-8D7F-333CE965C68E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="830" yWindow="-110" windowWidth="18480" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="71">
   <si>
     <t>name</t>
   </si>
@@ -1098,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F17DE5E-55DD-4A84-BDB3-285BA5B83CDB}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1350,6 +1350,23 @@
         <v>70</v>
       </c>
     </row>
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1360,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE157293-0D9A-4116-B097-B414F06D871C}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/radar.xlsx
+++ b/radar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clients\mitrais\sources\radar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACFAFA5-D494-4091-8D7F-333CE965C68E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99D6C6D-2DF4-489B-AD27-6B5F4DD10963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="830" yWindow="-110" windowWidth="18480" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-S2" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -246,6 +246,39 @@
   </si>
   <si>
     <t>Clojure is a dynamic, general-purpose programming language, combining the approachability and interactive development of a scripting language with an efficient and robust infrastructure for multithreaded programming. Clojure is a compiled language, yet remains completely dynamic – every feature supported by Clojure is supported at runtime. Clojure provides easy access to the Java frameworks, with optional type hints and type inference, to ensure that calls to Java can avoid reflection.</t>
+  </si>
+  <si>
+    <t>Progressive Web Apps</t>
+  </si>
+  <si>
+    <t>AWS Amplify</t>
+  </si>
+  <si>
+    <t>Google Cloud Platform</t>
+  </si>
+  <si>
+    <t>Azure Devops</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;PWA features allow to close the gap to native applications and create similar user experiences. Features include&lt;/p&gt;
+&lt;ul&gt;&lt;li&gt;Work offline&lt;/li&gt;
+&lt;li&gt;High performance&lt;/li&gt;
+&lt;li&gt;Background processing in service workers in a separate thread&lt;/li&gt;
+&lt;li&gt;Access to the phone's sensors&lt;/li&gt;
+&lt;li&gt;Support for push notifications&lt;/li&gt;
+&lt;li&gt;An icon on the phone‘s home screen&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>A set of products and tools that enables mobile and front-end web developers to build and deploy secure, scalable full stack applications, powered by AWS. With Amplify, you can configure app backends in minutes, connect them to your app in just a few lines of code, and deploy static web apps in three steps.</t>
+  </si>
+  <si>
+    <t>A suite of cloud computing services that runs on the same infrastructure that Google uses internally for its end-user products, such as Google Search, Gmail, file storage, and YouTube.</t>
+  </si>
+  <si>
+    <t>A Software as a service (SaaS) platform from Microsoft that provides an end-to-end DevOps toolchain for developing and deploying software. It also integrates with most leading tools on the market and is a great option for orchestrating a DevOps toolchain.</t>
+  </si>
+  <si>
+    <t>Blazor is a feature of ASP.NET for building interactive web UIs using C# instead of JavaScript. It's real .NET running in the browser on WebAssembly.</t>
   </si>
 </sst>
 </file>
@@ -1098,21 +1131,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F17DE5E-55DD-4A84-BDB3-285BA5B83CDB}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.81640625" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1146,7 +1179,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="232" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1163,7 +1196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1180,7 +1213,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1197,7 +1230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
@@ -1214,7 +1247,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -1231,7 +1264,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -1248,7 +1281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -1265,7 +1298,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -1282,7 +1315,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
@@ -1299,7 +1332,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
@@ -1316,7 +1349,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
@@ -1333,7 +1366,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
@@ -1350,7 +1383,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -1365,6 +1398,91 @@
       </c>
       <c r="E15" s="2" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1381,15 +1499,15 @@
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.81640625" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1423,7 +1541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1440,7 +1558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1457,7 +1575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1474,7 +1592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1491,7 +1609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="232" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1508,7 +1626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1525,7 +1643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1542,7 +1660,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1559,7 +1677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1576,7 +1694,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1593,7 +1711,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1610,7 +1728,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1627,7 +1745,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1644,7 +1762,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1661,7 +1779,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -1678,7 +1796,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -1695,7 +1813,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1712,7 +1830,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -1729,7 +1847,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
@@ -1760,15 +1878,15 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.81640625" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1785,7 +1903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1802,7 +1920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1819,7 +1937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1836,7 +1954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1853,7 +1971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1870,7 +1988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="232" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1887,7 +2005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1904,7 +2022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1921,7 +2039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1938,7 +2056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1955,7 +2073,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1972,7 +2090,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1989,7 +2107,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -2006,7 +2124,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -2023,7 +2141,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -2040,7 +2158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>

--- a/radar.xlsx
+++ b/radar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clients\mitrais\sources\radar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99D6C6D-2DF4-489B-AD27-6B5F4DD10963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2129DB-A21D-4ED6-86B7-FBCD3F08ED9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -276,9 +276,6 @@
   </si>
   <si>
     <t>A Software as a service (SaaS) platform from Microsoft that provides an end-to-end DevOps toolchain for developing and deploying software. It also integrates with most leading tools on the market and is a great option for orchestrating a DevOps toolchain.</t>
-  </si>
-  <si>
-    <t>Blazor is a feature of ASP.NET for building interactive web UIs using C# instead of JavaScript. It's real .NET running in the browser on WebAssembly.</t>
   </si>
 </sst>
 </file>
@@ -1131,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F17DE5E-55DD-4A84-BDB3-285BA5B83CDB}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1252,7 +1249,7 @@
         <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -1466,23 +1463,6 @@
       </c>
       <c r="E19" s="3" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
